--- a/Nguyễn Thanh Tú - 1150080080 - buoi5- CNPM1.xlsx
+++ b/Nguyễn Thanh Tú - 1150080080 - buoi5- CNPM1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ki2nam4\Tester\buoi6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD55F4E-C3AC-4934-89D8-72539FFD30B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D803AFF2-404C-4482-9C5C-869C05C4C174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{94A40C90-6798-4677-9D38-E091E112E7DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="5" xr2:uid="{94A40C90-6798-4677-9D38-E091E112E7DD}"/>
   </bookViews>
   <sheets>
     <sheet name="bai1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="284">
   <si>
     <t>    }</t>
   </si>
@@ -951,6 +951,132 @@
   </si>
   <si>
     <t>File handling (Job Specification)</t>
+  </si>
+  <si>
+    <t>Username để trống</t>
+  </si>
+  <si>
+    <t>Mở form → để trống Username → Create</t>
+  </si>
+  <si>
+    <t>username = ""</t>
+  </si>
+  <si>
+    <t>Tạo user hợp lệ</t>
+  </si>
+  <si>
+    <t>Nhập đầy đủ thông tin → Create</t>
+  </si>
+  <si>
+    <t>admin / 123456 / admin@gmail.com</t>
+  </si>
+  <si>
+    <t>Tạo user thành công</t>
+  </si>
+  <si>
+    <t>Username trùng</t>
+  </si>
+  <si>
+    <t>Tạo user trùng username</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>Báo lỗi trùng username</t>
+  </si>
+  <si>
+    <t>Password quá ngắn</t>
+  </si>
+  <si>
+    <t>Nhập password &lt; 6 ký tự → Create</t>
+  </si>
+  <si>
+    <t>password = 123</t>
+  </si>
+  <si>
+    <t>Báo lỗi password</t>
+  </si>
+  <si>
+    <t>Email sai định dạng</t>
+  </si>
+  <si>
+    <t>Nhập email sai → Create</t>
+  </si>
+  <si>
+    <t>email = "email"</t>
+  </si>
+  <si>
+    <t>Báo lỗi email</t>
+  </si>
+  <si>
+    <t>Update user hợp lệ</t>
+  </si>
+  <si>
+    <t>Chọn user → Update email</t>
+  </si>
+  <si>
+    <t>user4 / new@gmail.com</t>
+  </si>
+  <si>
+    <t>Cập nhật thành công</t>
+  </si>
+  <si>
+    <t>Update user không tồn tại</t>
+  </si>
+  <si>
+    <t>Update user chưa có trong DB</t>
+  </si>
+  <si>
+    <t>username = ghost</t>
+  </si>
+  <si>
+    <t>Báo lỗi user không tồn tại</t>
+  </si>
+  <si>
+    <t>Không cập nhật</t>
+  </si>
+  <si>
+    <t>Delete user hợp lệ</t>
+  </si>
+  <si>
+    <t>Chọn user → Delete</t>
+  </si>
+  <si>
+    <t>user5</t>
+  </si>
+  <si>
+    <t>Xóa thành công</t>
+  </si>
+  <si>
+    <t>Delete user không tồn tại</t>
+  </si>
+  <si>
+    <t>Delete user không có trong DB</t>
+  </si>
+  <si>
+    <t>Reset password quá ngắn</t>
+  </si>
+  <si>
+    <t>Reset password &lt; 6 ký tự</t>
+  </si>
+  <si>
+    <t>Kiểm thử chức năng User Management (Java Swing + JUnit + Database)</t>
+  </si>
+  <si>
+    <t>User Validation (Username / Password / Email)</t>
+  </si>
+  <si>
+    <t>Create User</t>
+  </si>
+  <si>
+    <t>Update User</t>
+  </si>
+  <si>
+    <t>Delete User</t>
+  </si>
+  <si>
+    <t>Reset Password</t>
   </si>
 </sst>
 </file>
@@ -3726,8 +3852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B403DDEE-9A60-4107-97E7-F7B8737D2DBD}">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:S4"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4335,12 +4461,604 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E8FF82-D03D-4F96-81A8-944A8BC93BFA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:20" ht="45">
+      <c r="A1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+    </row>
+    <row r="2" spans="1:20" ht="90">
+      <c r="A2" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+    </row>
+    <row r="3" spans="1:20" ht="75">
+      <c r="A3" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12">
+        <v>1150080080</v>
+      </c>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+    </row>
+    <row r="4" spans="1:20" ht="60">
+      <c r="A4" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+    </row>
+    <row r="5" spans="1:20" ht="75">
+      <c r="A5" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="45">
+      <c r="A6" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="14">
+        <v>1</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>46056</v>
+      </c>
+      <c r="R6" s="17"/>
+    </row>
+    <row r="7" spans="1:20" ht="60">
+      <c r="A7" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="14">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="60">
+      <c r="A8" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="45">
+      <c r="A9" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q9" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="R9" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="S9" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="T9" s="20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="120">
+      <c r="A10" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="L10" s="4">
+        <v>5</v>
+      </c>
+      <c r="M10" s="4">
+        <v>4</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <v>5</v>
+      </c>
+      <c r="S10" s="25">
+        <v>1</v>
+      </c>
+      <c r="T10" s="25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="60">
+      <c r="A11" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="J11" s="4">
+        <v>2</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="L11" s="4">
+        <v>2</v>
+      </c>
+      <c r="M11" s="4">
+        <v>2</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <v>2</v>
+      </c>
+      <c r="S11" s="25">
+        <v>1</v>
+      </c>
+      <c r="T11" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="30">
+      <c r="J12" s="4">
+        <v>3</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="L12" s="4">
+        <v>2</v>
+      </c>
+      <c r="M12" s="4">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <v>2</v>
+      </c>
+      <c r="S12" s="25">
+        <v>1</v>
+      </c>
+      <c r="T12" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="30">
+      <c r="J13" s="4">
+        <v>4</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <v>1</v>
+      </c>
+      <c r="S13" s="25">
+        <v>1</v>
+      </c>
+      <c r="T13" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="45">
+      <c r="J14" s="4">
+        <v>5</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <v>1</v>
+      </c>
+      <c r="S14" s="25">
+        <v>1</v>
+      </c>
+      <c r="T14" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="J15" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="26">
+        <v>10</v>
+      </c>
+      <c r="M15" s="26">
+        <v>7</v>
+      </c>
+      <c r="N15" s="26">
+        <v>3</v>
+      </c>
+      <c r="O15" s="26">
+        <v>0</v>
+      </c>
+      <c r="P15" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="26">
+        <v>0</v>
+      </c>
+      <c r="R15" s="26">
+        <v>10</v>
+      </c>
+      <c r="S15" s="27">
+        <v>1</v>
+      </c>
+      <c r="T15" s="27">
+        <v>0.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:S4"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="J1:S1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>